--- a/excel/2.xlsx
+++ b/excel/2.xlsx
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="b">
         <v>0</v>
@@ -656,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -762,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
       <c r="R4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
       </c>
       <c r="T4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
       <c r="M6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1154,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
       </c>
       <c r="Q9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
       </c>
       <c r="S9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="b">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1671,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1832,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -1962,16 +1962,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
       </c>
       <c r="W19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="b">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="b">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2111,10 +2111,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="b">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="b">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -2272,16 +2272,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" t="b">
         <v>1</v>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="b">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>

--- a/excel/2.xlsx
+++ b/excel/2.xlsx
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -650,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="b">
         <v>0</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1166,16 +1166,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="b">
         <v>0</v>
@@ -1327,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -1470,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1692,16 +1692,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -1829,19 +1829,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
       </c>
       <c r="X19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="b">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="b">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="b">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="b">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="b">
         <v>0</v>
@@ -2278,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="b">
         <v>1</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="b">
         <v>0</v>

--- a/excel/2.xlsx
+++ b/excel/2.xlsx
@@ -521,37 +521,37 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Carter</t>
+          <t>Lexcee</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Lexcee</t>
+          <t>Tavian</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Tavian</t>
+          <t>Anirudh</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Anirudh</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>Pauline</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Pauline</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Cripps</t>
         </is>
       </c>
     </row>
@@ -571,19 +571,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="b">
         <v>0</v>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1169,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
       </c>
       <c r="X9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="b">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1321,16 +1321,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
       </c>
       <c r="T11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="b">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
       </c>
       <c r="Y12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1470,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="O13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
       </c>
       <c r="Q13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="b">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="b">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
       </c>
       <c r="O17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="b">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -1901,7 +1901,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Carter</t>
+          <t>Lexcee</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Lexcee</t>
+          <t>Tavian</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
@@ -2059,14 +2059,14 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Tavian</t>
+          <t>Anirudh</t>
         </is>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="b">
         <v>0</v>
@@ -2138,20 +2138,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Anirudh</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="b">
         <v>0</v>
@@ -2217,7 +2217,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>Pauline</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="b">
         <v>0</v>
@@ -2296,7 +2296,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Pauline</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="b">
         <v>0</v>
@@ -2375,7 +2375,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Cripps</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2409,19 +2409,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="b">
         <v>0</v>
       </c>
       <c r="N25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="b">
         <v>0</v>

--- a/excel/2.xlsx
+++ b/excel/2.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="b">
         <v>0</v>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -853,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -881,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="b">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1169,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
       </c>
       <c r="X9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="b">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="b">
         <v>0</v>
@@ -1276,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="b">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
       </c>
       <c r="Y13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="b">
         <v>0</v>
       </c>
       <c r="X14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="b">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
@@ -1795,16 +1795,16 @@
         <v>1</v>
       </c>
       <c r="R17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
       </c>
       <c r="T17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
@@ -1853,25 +1853,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
       </c>
       <c r="O18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
       </c>
       <c r="Q18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="b">
         <v>1</v>
@@ -1920,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
@@ -2145,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>

--- a/excel/2.xlsx
+++ b/excel/2.xlsx
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
@@ -616,10 +616,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="b">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="T7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
       </c>
       <c r="U8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="b">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -1169,13 +1169,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
       </c>
       <c r="V9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
       </c>
       <c r="X10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="b">
         <v>0</v>
@@ -1276,16 +1276,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
       </c>
       <c r="Y12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="b">
         <v>0</v>
@@ -1592,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
@@ -1783,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="b">
         <v>1</v>
       </c>
       <c r="R17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
@@ -1865,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
       </c>
       <c r="Q18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="b">
         <v>1</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="b">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1993,19 +1993,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2178,13 +2178,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="b">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2318,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="b">
         <v>0</v>

--- a/excel/2.xlsx
+++ b/excel/2.xlsx
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -610,13 +610,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
       </c>
       <c r="T2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
       </c>
       <c r="Y3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
       </c>
       <c r="X4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="b">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
       </c>
       <c r="S5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="b">
         <v>0</v>
       </c>
       <c r="U5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -1002,16 +1002,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
       </c>
       <c r="S7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1084,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
       </c>
       <c r="U8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="b">
         <v>0</v>
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1233,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="O10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
       </c>
       <c r="Q10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
       </c>
       <c r="S10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="b">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
@@ -1282,16 +1282,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
@@ -1452,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
       </c>
       <c r="W13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
       </c>
       <c r="Y13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="b">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
@@ -1722,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
       </c>
       <c r="X16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="b">
         <v>0</v>
@@ -1756,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="b">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="b">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
@@ -2184,13 +2184,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="b">
         <v>0</v>
       </c>
       <c r="R22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="X23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="b">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2342,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="b">
         <v>0</v>
       </c>
       <c r="R24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="b">
         <v>1</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="b">
         <v>0</v>

--- a/excel/2.xlsx
+++ b/excel/2.xlsx
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
       </c>
       <c r="X4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="b">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
       </c>
       <c r="W5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -1084,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
       </c>
       <c r="U8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="b">
         <v>1</v>
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1239,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
       </c>
       <c r="S10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="b">
         <v>0</v>
       </c>
       <c r="U10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1285,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
       </c>
       <c r="W13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1519,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="b">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -1601,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="b">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1719,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="b">
         <v>0</v>
@@ -1756,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1838,13 +1838,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="b">
         <v>0</v>
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="T19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="b">
         <v>0</v>
@@ -2017,16 +2017,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="b">
         <v>1</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
       <c r="M21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="b">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="b">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="X23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="b">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="b">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="b">
         <v>1</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="b">
         <v>0</v>
